--- a/final_report/Group 7 Backlog.xlsx
+++ b/final_report/Group 7 Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Member</t>
   </si>
@@ -50,37 +50,43 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Write Final Report</t>
+  </si>
+  <si>
+    <t>Create/Write Final Report</t>
+  </si>
+  <si>
+    <t>Christina Kim</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Calendar Blank</t>
+  </si>
+  <si>
+    <t>Clear out Calendar text after a split is complete</t>
+  </si>
+  <si>
+    <t>Reminders</t>
+  </si>
+  <si>
+    <t>Local notifications when due date approaches</t>
+  </si>
+  <si>
+    <t>Fix Split Page UI</t>
+  </si>
+  <si>
+    <t>Fix seekbar UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gio Canales</t>
+  </si>
+  <si>
     <t>README</t>
   </si>
   <si>
     <t>Generate readme with required information on the app</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Calendar Blank</t>
-  </si>
-  <si>
-    <t>Clear out Calendar text after a split is complete</t>
-  </si>
-  <si>
-    <t>Christina Kim</t>
-  </si>
-  <si>
-    <t>Reminders</t>
-  </si>
-  <si>
-    <t>Local notifications when due date approaches</t>
-  </si>
-  <si>
-    <t>Fix Split Page UI</t>
-  </si>
-  <si>
-    <t>Fix seekbar UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gio Canales</t>
   </si>
   <si>
     <t>Deadline tracking</t>
@@ -964,30 +970,32 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9">
-        <v>45986.0</v>
+        <v>45992.0</v>
       </c>
       <c r="F4" s="9">
-        <v>45986.0</v>
+        <v>45992.0</v>
       </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="9">
         <v>45987.0</v>
@@ -1005,10 +1013,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="13">
         <v>45968.0</v>
@@ -1029,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="15">
         <v>45978.0</v>
@@ -1041,14 +1049,16 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="9">
         <v>45986.0</v>
@@ -1060,16 +1070,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="13">
         <v>45980.0</v>
@@ -1081,16 +1091,16 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="19">
         <v>45980.0</v>
@@ -1102,16 +1112,16 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="19">
         <v>45979.0</v>
@@ -1123,16 +1133,16 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="19">
         <v>45979.0</v>
@@ -1144,16 +1154,16 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="19">
         <v>45979.0</v>
@@ -1165,16 +1175,16 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="23">
         <v>45978.0</v>
@@ -1186,16 +1196,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="15">
         <v>45939.0</v>
@@ -1207,16 +1217,16 @@
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="27">
         <v>45927.0</v>
@@ -1228,16 +1238,16 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="28">
         <v>45930.0</v>
@@ -1249,16 +1259,16 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="28">
         <v>45938.0</v>
@@ -1270,16 +1280,16 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="15">
         <v>45948.0</v>
@@ -1291,16 +1301,16 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="13">
         <v>45957.0</v>
@@ -1312,16 +1322,16 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="15">
         <v>45963.0</v>
@@ -1333,16 +1343,16 @@
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="15">
         <v>45973.0</v>
@@ -5769,7 +5779,7 @@
     <row r="2">
       <c r="A2" s="32"/>
       <c r="B2" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="36"/>
@@ -5781,7 +5791,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="33"/>
@@ -5790,7 +5800,7 @@
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="33"/>
@@ -5801,7 +5811,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="33"/>
@@ -5810,7 +5820,7 @@
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="33"/>
@@ -5819,10 +5829,10 @@
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="33"/>
     </row>
@@ -5830,10 +5840,10 @@
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="33"/>
     </row>
@@ -5841,10 +5851,10 @@
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="33"/>
     </row>
@@ -5852,10 +5862,10 @@
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="33"/>
     </row>
@@ -5863,10 +5873,10 @@
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="33"/>
     </row>
@@ -5874,10 +5884,10 @@
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="33"/>
     </row>
@@ -5885,10 +5895,10 @@
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" s="33"/>
     </row>
@@ -5898,7 +5908,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="33"/>
@@ -5920,7 +5930,7 @@
     <row r="17">
       <c r="A17" s="32"/>
       <c r="B17" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -5929,40 +5939,40 @@
     <row r="18">
       <c r="A18" s="42"/>
       <c r="B18" s="44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="33"/>
     </row>
     <row r="19">
       <c r="A19" s="45"/>
       <c r="B19" s="46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="33"/>
     </row>
     <row r="20">
       <c r="A20" s="45"/>
       <c r="B20" s="47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="33"/>
     </row>
     <row r="21">
       <c r="A21" s="37"/>
       <c r="B21" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
@@ -5978,7 +5988,7 @@
     <row r="23">
       <c r="A23" s="32"/>
       <c r="B23" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
@@ -5991,7 +6001,7 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="33"/>
     </row>
@@ -5999,10 +6009,10 @@
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="33"/>
     </row>
@@ -6011,7 +6021,7 @@
       <c r="B26" s="37"/>
       <c r="C26" s="42"/>
       <c r="D26" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="33"/>
     </row>
@@ -6019,10 +6029,10 @@
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27" s="33"/>
     </row>
@@ -6031,7 +6041,7 @@
       <c r="B28" s="37"/>
       <c r="C28" s="43"/>
       <c r="D28" s="37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" s="33"/>
     </row>
